--- a/SchedulingData/dynamic13/pso/scheduling1_4.xlsx
+++ b/SchedulingData/dynamic13/pso/scheduling1_4.xlsx
@@ -462,97 +462,97 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>52.3</v>
+        <v>62.18</v>
       </c>
       <c r="E2" t="n">
-        <v>26.96</v>
+        <v>26.932</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>42.2</v>
+        <v>47.3</v>
       </c>
       <c r="E3" t="n">
-        <v>26.48</v>
+        <v>26.96</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>89.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>25.14</v>
+        <v>26.64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>51.34</v>
+        <v>81.66</v>
       </c>
       <c r="E5" t="n">
-        <v>27.036</v>
+        <v>26.464</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>51.34</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>102.3</v>
+        <v>144.8</v>
       </c>
       <c r="E6" t="n">
-        <v>23.56</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="7">
@@ -561,55 +561,55 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>62.18</v>
       </c>
       <c r="D7" t="n">
-        <v>78.81999999999999</v>
+        <v>126.98</v>
       </c>
       <c r="E7" t="n">
-        <v>25.788</v>
+        <v>22.072</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>81.66</v>
       </c>
       <c r="D8" t="n">
-        <v>52.1</v>
+        <v>121.06</v>
       </c>
       <c r="E8" t="n">
-        <v>25.98</v>
+        <v>23.664</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>78.81999999999999</v>
+        <v>47.3</v>
       </c>
       <c r="D9" t="n">
-        <v>130.42</v>
+        <v>98.36</v>
       </c>
       <c r="E9" t="n">
-        <v>22.248</v>
+        <v>24.464</v>
       </c>
     </row>
     <row r="10">
@@ -618,17 +618,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>89.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.74</v>
+        <v>66.66</v>
       </c>
       <c r="E10" t="n">
-        <v>21.276</v>
+        <v>26.024</v>
       </c>
     </row>
     <row r="11">
@@ -637,22 +637,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>102.3</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>152</v>
+        <v>57.2</v>
       </c>
       <c r="E11" t="n">
-        <v>19.72</v>
+        <v>26.48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -660,146 +660,146 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>52.3</v>
+        <v>126.98</v>
       </c>
       <c r="D12" t="n">
-        <v>119.78</v>
+        <v>170.06</v>
       </c>
       <c r="E12" t="n">
-        <v>23.792</v>
+        <v>18.904</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>164.74</v>
+        <v>121.06</v>
       </c>
       <c r="D13" t="n">
-        <v>229.64</v>
+        <v>181.14</v>
       </c>
       <c r="E13" t="n">
-        <v>18.416</v>
+        <v>20.256</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>152</v>
+        <v>66.66</v>
       </c>
       <c r="D14" t="n">
-        <v>214.34</v>
+        <v>118.76</v>
       </c>
       <c r="E14" t="n">
-        <v>16.596</v>
+        <v>21.944</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>52.1</v>
+        <v>118.76</v>
       </c>
       <c r="D15" t="n">
-        <v>136.64</v>
+        <v>160.52</v>
       </c>
       <c r="E15" t="n">
-        <v>22.116</v>
+        <v>18.408</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>214.34</v>
+        <v>144.8</v>
       </c>
       <c r="D16" t="n">
-        <v>263.82</v>
+        <v>197.96</v>
       </c>
       <c r="E16" t="n">
-        <v>13.268</v>
+        <v>19.104</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>263.82</v>
+        <v>98.36</v>
       </c>
       <c r="D17" t="n">
-        <v>308.92</v>
+        <v>148.3</v>
       </c>
       <c r="E17" t="n">
-        <v>9.888</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>130.42</v>
+        <v>160.52</v>
       </c>
       <c r="D18" t="n">
-        <v>188.22</v>
+        <v>213.44</v>
       </c>
       <c r="E18" t="n">
-        <v>18.088</v>
+        <v>15.236</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>42.2</v>
+        <v>57.2</v>
       </c>
       <c r="D19" t="n">
-        <v>135.9</v>
+        <v>133.7</v>
       </c>
       <c r="E19" t="n">
-        <v>23.68</v>
+        <v>22.46</v>
       </c>
     </row>
     <row r="20">
@@ -808,55 +808,55 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>188.22</v>
+        <v>170.06</v>
       </c>
       <c r="D20" t="n">
-        <v>268.14</v>
+        <v>208.26</v>
       </c>
       <c r="E20" t="n">
-        <v>15.176</v>
+        <v>16.704</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>229.64</v>
+        <v>181.14</v>
       </c>
       <c r="D21" t="n">
-        <v>293</v>
+        <v>234.66</v>
       </c>
       <c r="E21" t="n">
-        <v>14.72</v>
+        <v>16.044</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>293</v>
+        <v>197.96</v>
       </c>
       <c r="D22" t="n">
-        <v>340.66</v>
+        <v>244.02</v>
       </c>
       <c r="E22" t="n">
-        <v>11.584</v>
+        <v>15.628</v>
       </c>
     </row>
     <row r="23">
@@ -865,17 +865,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>136.64</v>
+        <v>148.3</v>
       </c>
       <c r="D23" t="n">
-        <v>181.74</v>
+        <v>218.1</v>
       </c>
       <c r="E23" t="n">
-        <v>19.236</v>
+        <v>17.74</v>
       </c>
     </row>
     <row r="24">
@@ -884,36 +884,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>135.9</v>
+        <v>244.02</v>
       </c>
       <c r="D24" t="n">
-        <v>178.3</v>
+        <v>285.82</v>
       </c>
       <c r="E24" t="n">
-        <v>20.08</v>
+        <v>12.088</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>340.66</v>
+        <v>133.7</v>
       </c>
       <c r="D25" t="n">
-        <v>390.94</v>
+        <v>216.72</v>
       </c>
       <c r="E25" t="n">
-        <v>8.176</v>
+        <v>18.768</v>
       </c>
     </row>
     <row r="26">
@@ -922,36 +922,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>268.14</v>
+        <v>208.26</v>
       </c>
       <c r="D26" t="n">
-        <v>312.52</v>
+        <v>253.36</v>
       </c>
       <c r="E26" t="n">
-        <v>12.368</v>
+        <v>13.324</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>119.78</v>
+        <v>253.36</v>
       </c>
       <c r="D27" t="n">
-        <v>166.54</v>
+        <v>298.4</v>
       </c>
       <c r="E27" t="n">
-        <v>20.256</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="28">
@@ -960,131 +960,131 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>181.74</v>
+        <v>218.1</v>
       </c>
       <c r="D28" t="n">
-        <v>226.54</v>
+        <v>268.7</v>
       </c>
       <c r="E28" t="n">
-        <v>16.376</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>166.54</v>
+        <v>268.7</v>
       </c>
       <c r="D29" t="n">
-        <v>248.96</v>
+        <v>346.1</v>
       </c>
       <c r="E29" t="n">
-        <v>17.084</v>
+        <v>11.14</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>312.52</v>
+        <v>234.66</v>
       </c>
       <c r="D30" t="n">
-        <v>369.72</v>
+        <v>287.22</v>
       </c>
       <c r="E30" t="n">
-        <v>8.288</v>
+        <v>12.908</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>226.54</v>
+        <v>216.72</v>
       </c>
       <c r="D31" t="n">
-        <v>277.14</v>
+        <v>264.26</v>
       </c>
       <c r="E31" t="n">
-        <v>13.936</v>
+        <v>15.644</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>178.3</v>
+        <v>346.1</v>
       </c>
       <c r="D32" t="n">
-        <v>226.5</v>
+        <v>385.56</v>
       </c>
       <c r="E32" t="n">
-        <v>17.88</v>
+        <v>8.324</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>248.96</v>
+        <v>213.44</v>
       </c>
       <c r="D33" t="n">
-        <v>315.02</v>
+        <v>262.64</v>
       </c>
       <c r="E33" t="n">
-        <v>13.108</v>
+        <v>11.456</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>315.02</v>
+        <v>298.4</v>
       </c>
       <c r="D34" t="n">
-        <v>361.08</v>
+        <v>355.7</v>
       </c>
       <c r="E34" t="n">
-        <v>10.612</v>
+        <v>5.86</v>
       </c>
     </row>
     <row r="35">
@@ -1093,17 +1093,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>226.5</v>
+        <v>285.82</v>
       </c>
       <c r="D35" t="n">
-        <v>286.4</v>
+        <v>331.02</v>
       </c>
       <c r="E35" t="n">
-        <v>14.52</v>
+        <v>9.208</v>
       </c>
     </row>
     <row r="36">
@@ -1112,93 +1112,93 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>286.4</v>
+        <v>331.02</v>
       </c>
       <c r="D36" t="n">
-        <v>364.52</v>
+        <v>370.7</v>
       </c>
       <c r="E36" t="n">
-        <v>10.828</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>277.14</v>
+        <v>262.64</v>
       </c>
       <c r="D37" t="n">
-        <v>323.8</v>
+        <v>317.24</v>
       </c>
       <c r="E37" t="n">
-        <v>10.4</v>
+        <v>8.596</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>323.8</v>
+        <v>264.26</v>
       </c>
       <c r="D38" t="n">
-        <v>377.96</v>
+        <v>327.32</v>
       </c>
       <c r="E38" t="n">
-        <v>7.584</v>
+        <v>11.948</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>308.92</v>
+        <v>370.7</v>
       </c>
       <c r="D39" t="n">
-        <v>355.9</v>
+        <v>419.88</v>
       </c>
       <c r="E39" t="n">
-        <v>6.82</v>
+        <v>3.072</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>364.52</v>
+        <v>355.7</v>
       </c>
       <c r="D40" t="n">
-        <v>428.32</v>
+        <v>411.34</v>
       </c>
       <c r="E40" t="n">
-        <v>7.048</v>
+        <v>2.896</v>
       </c>
     </row>
     <row r="41">
@@ -1207,17 +1207,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>355.9</v>
+        <v>327.32</v>
       </c>
       <c r="D41" t="n">
-        <v>424.16</v>
+        <v>407.34</v>
       </c>
       <c r="E41" t="n">
-        <v>3.124</v>
+        <v>9.036</v>
       </c>
     </row>
   </sheetData>
